--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/13.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/13.xlsx
@@ -479,13 +479,13 @@
         <v>-14.40606834805764</v>
       </c>
       <c r="E2" t="n">
-        <v>-10.45251762589077</v>
+        <v>-10.38405797433139</v>
       </c>
       <c r="F2" t="n">
-        <v>2.641893076592811</v>
+        <v>2.626732189902092</v>
       </c>
       <c r="G2" t="n">
-        <v>-15.47399182701776</v>
+        <v>-15.25215584766755</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-14.2356833663143</v>
       </c>
       <c r="E3" t="n">
-        <v>-10.94978947242521</v>
+        <v>-10.87697008401953</v>
       </c>
       <c r="F3" t="n">
-        <v>2.522857859155838</v>
+        <v>2.516416446157709</v>
       </c>
       <c r="G3" t="n">
-        <v>-15.07614292826339</v>
+        <v>-14.87867172450163</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-13.97541431813546</v>
       </c>
       <c r="E4" t="n">
-        <v>-11.26225037204585</v>
+        <v>-11.21096782181481</v>
       </c>
       <c r="F4" t="n">
-        <v>2.666270944484105</v>
+        <v>2.673340788018637</v>
       </c>
       <c r="G4" t="n">
-        <v>-14.56824013182147</v>
+        <v>-14.38188429317234</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-13.65986832694649</v>
       </c>
       <c r="E5" t="n">
-        <v>-11.81025489209198</v>
+        <v>-11.77840131927806</v>
       </c>
       <c r="F5" t="n">
-        <v>2.721284801025038</v>
+        <v>2.734246180838347</v>
       </c>
       <c r="G5" t="n">
-        <v>-13.97002663037732</v>
+        <v>-13.7990804321729</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-13.30554865246233</v>
       </c>
       <c r="E6" t="n">
-        <v>-12.52805348769245</v>
+        <v>-12.49681525311209</v>
       </c>
       <c r="F6" t="n">
-        <v>2.752523035605396</v>
+        <v>2.765039277122086</v>
       </c>
       <c r="G6" t="n">
-        <v>-13.49108400782129</v>
+        <v>-13.31931299453785</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-12.94493730768724</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.85845084220625</v>
+        <v>-12.85699759659082</v>
       </c>
       <c r="F7" t="n">
-        <v>2.967315356026754</v>
+        <v>2.978077228962653</v>
       </c>
       <c r="G7" t="n">
-        <v>-12.82835163797312</v>
+        <v>-12.62826197364302</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-12.59835091704771</v>
       </c>
       <c r="E8" t="n">
-        <v>-13.65624340816967</v>
+        <v>-13.65325836312176</v>
       </c>
       <c r="F8" t="n">
-        <v>3.092870540278907</v>
+        <v>3.108319457632144</v>
       </c>
       <c r="G8" t="n">
-        <v>-12.52767381091004</v>
+        <v>-12.30947749174983</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-12.27997026047819</v>
       </c>
       <c r="E9" t="n">
-        <v>-14.28167580722176</v>
+        <v>-14.28877183536198</v>
       </c>
       <c r="F9" t="n">
-        <v>3.260556755075735</v>
+        <v>3.269957028516094</v>
       </c>
       <c r="G9" t="n">
-        <v>-11.91215228510913</v>
+        <v>-11.68514484613644</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-12.00365529272266</v>
       </c>
       <c r="E10" t="n">
-        <v>-15.25739276880424</v>
+        <v>-15.26281298218072</v>
       </c>
       <c r="F10" t="n">
-        <v>3.44832656243177</v>
+        <v>3.463749295179324</v>
       </c>
       <c r="G10" t="n">
-        <v>-11.57803671658828</v>
+        <v>-11.33497811433164</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-11.76991079493413</v>
       </c>
       <c r="E11" t="n">
-        <v>-16.12803090777902</v>
+        <v>-16.14671362393417</v>
       </c>
       <c r="F11" t="n">
-        <v>3.629105080070324</v>
+        <v>3.655944300895862</v>
       </c>
       <c r="G11" t="n">
-        <v>-11.12550126886402</v>
+        <v>-10.89918772194194</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-11.58644490407615</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.93765891551137</v>
+        <v>-16.9793055308509</v>
       </c>
       <c r="F12" t="n">
-        <v>3.676368293328955</v>
+        <v>3.702264868349889</v>
       </c>
       <c r="G12" t="n">
-        <v>-10.88109415941468</v>
+        <v>-10.64602186189149</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-11.44234689396613</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.56289493002084</v>
+        <v>-17.60650539078663</v>
       </c>
       <c r="F13" t="n">
-        <v>3.53782554465781</v>
+        <v>3.556311876270327</v>
       </c>
       <c r="G13" t="n">
-        <v>-10.32659585715905</v>
+        <v>-10.10983969131144</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-11.3379753577193</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.53436998548259</v>
+        <v>-18.59232961016291</v>
       </c>
       <c r="F14" t="n">
-        <v>3.790114220417871</v>
+        <v>3.802106769820892</v>
       </c>
       <c r="G14" t="n">
-        <v>-9.752315085309581</v>
+        <v>-9.521170478638908</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-11.2559972858503</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.37232973656443</v>
+        <v>-19.43584049764964</v>
       </c>
       <c r="F15" t="n">
-        <v>3.830098113296502</v>
+        <v>3.844525831028085</v>
       </c>
       <c r="G15" t="n">
-        <v>-9.283584458970104</v>
+        <v>-9.062075787190942</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-11.17888539921425</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.34745754451903</v>
+        <v>-20.38613220711349</v>
       </c>
       <c r="F16" t="n">
-        <v>4.040386681540307</v>
+        <v>4.037951513211746</v>
       </c>
       <c r="G16" t="n">
-        <v>-8.762576267383615</v>
+        <v>-8.544065732955207</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-11.08808736287841</v>
       </c>
       <c r="E17" t="n">
-        <v>-21.29812893076528</v>
+        <v>-21.32289956774183</v>
       </c>
       <c r="F17" t="n">
-        <v>4.244050544546197</v>
+        <v>4.253765033254758</v>
       </c>
       <c r="G17" t="n">
-        <v>-8.402603400750358</v>
+        <v>-8.181107821274036</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-10.96077288718957</v>
       </c>
       <c r="E18" t="n">
-        <v>-22.06236592454536</v>
+        <v>-22.07717331905935</v>
       </c>
       <c r="F18" t="n">
-        <v>4.491128483775252</v>
+        <v>4.490107284153597</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.924341577942104</v>
+        <v>-7.712652133294235</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-10.78431684887719</v>
       </c>
       <c r="E19" t="n">
-        <v>-22.79344011522734</v>
+        <v>-22.82268831977576</v>
       </c>
       <c r="F19" t="n">
-        <v>4.693404562679919</v>
+        <v>4.695106562049344</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.364226677767379</v>
+        <v>-7.135307762579799</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-10.54226995438832</v>
       </c>
       <c r="E20" t="n">
-        <v>-23.48896870369404</v>
+        <v>-23.52583662849634</v>
       </c>
       <c r="F20" t="n">
-        <v>4.81105199601567</v>
+        <v>4.820452269456029</v>
       </c>
       <c r="G20" t="n">
-        <v>-6.658132600907409</v>
+        <v>-6.425927517706556</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-10.23928404209724</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.166194252788</v>
+        <v>-24.18447110755505</v>
       </c>
       <c r="F21" t="n">
-        <v>4.871381327510344</v>
+        <v>4.879708032117681</v>
       </c>
       <c r="G21" t="n">
-        <v>-6.527039372553206</v>
+        <v>-6.299992656671993</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-9.876989957858669</v>
       </c>
       <c r="E22" t="n">
-        <v>-24.89373352170272</v>
+        <v>-24.91698545154963</v>
       </c>
       <c r="F22" t="n">
-        <v>5.19546819205443</v>
+        <v>5.207748772119969</v>
       </c>
       <c r="G22" t="n">
-        <v>-6.384726040663644</v>
+        <v>-6.177985486489947</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-9.472830593355072</v>
       </c>
       <c r="E23" t="n">
-        <v>-25.40530216294033</v>
+        <v>-25.40243494861799</v>
       </c>
       <c r="F23" t="n">
-        <v>5.196358468647668</v>
+        <v>5.19887219079328</v>
       </c>
       <c r="G23" t="n">
-        <v>-6.084624274925599</v>
+        <v>-5.881523380941903</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-9.043227903784858</v>
       </c>
       <c r="E24" t="n">
-        <v>-25.84763870675088</v>
+        <v>-25.84410378498362</v>
       </c>
       <c r="F24" t="n">
-        <v>5.134170030149469</v>
+        <v>5.162606511921698</v>
       </c>
       <c r="G24" t="n">
-        <v>-5.801450856761906</v>
+        <v>-5.610447250603964</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-8.605305912055893</v>
       </c>
       <c r="E25" t="n">
-        <v>-26.17507720082245</v>
+        <v>-26.17341447836155</v>
       </c>
       <c r="F25" t="n">
-        <v>5.246475803925795</v>
+        <v>5.286590619832844</v>
       </c>
       <c r="G25" t="n">
-        <v>-5.558968315830297</v>
+        <v>-5.402698589111455</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-8.17880302345068</v>
       </c>
       <c r="E26" t="n">
-        <v>-26.4803242415773</v>
+        <v>-26.45794949602078</v>
       </c>
       <c r="F26" t="n">
-        <v>5.255954631183205</v>
+        <v>5.30848095018421</v>
       </c>
       <c r="G26" t="n">
-        <v>-5.329931569917141</v>
+        <v>-5.187605145724738</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-7.774807950094318</v>
       </c>
       <c r="E27" t="n">
-        <v>-26.26122455352101</v>
+        <v>-26.25564723251043</v>
       </c>
       <c r="F27" t="n">
-        <v>5.367972374297013</v>
+        <v>5.412355280930464</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.917262184345936</v>
+        <v>-4.805048056689501</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-7.411063210070341</v>
       </c>
       <c r="E28" t="n">
-        <v>-26.40335459317079</v>
+        <v>-26.37980154035852</v>
       </c>
       <c r="F28" t="n">
-        <v>5.160354635832921</v>
+        <v>5.189655209592704</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.749104646646806</v>
+        <v>-4.660967263916306</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-7.09134060585626</v>
       </c>
       <c r="E29" t="n">
-        <v>-26.54545844821488</v>
+        <v>-26.53393722171417</v>
       </c>
       <c r="F29" t="n">
-        <v>5.194604100066877</v>
+        <v>5.21146698612702</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.717840227460764</v>
+        <v>-4.630750228957602</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-6.827531260380128</v>
       </c>
       <c r="E30" t="n">
-        <v>-26.56969230077492</v>
+        <v>-26.53528572890686</v>
       </c>
       <c r="F30" t="n">
-        <v>5.175934476214575</v>
+        <v>5.196227545619251</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.730709961154181</v>
+        <v>-4.652601282400443</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-6.621842469397355</v>
       </c>
       <c r="E31" t="n">
-        <v>-26.21386969414248</v>
+        <v>-26.18210776744846</v>
       </c>
       <c r="F31" t="n">
-        <v>5.034616159340984</v>
+        <v>5.054673567294508</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.928783410846655</v>
+        <v>-4.843801273101011</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-6.474585939194064</v>
       </c>
       <c r="E32" t="n">
-        <v>-25.88199290940757</v>
+        <v>-25.84147223211243</v>
       </c>
       <c r="F32" t="n">
-        <v>5.048546369564581</v>
+        <v>5.057161104834436</v>
       </c>
       <c r="G32" t="n">
-        <v>-5.022131530108162</v>
+        <v>-4.936913730911367</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-6.387944225914388</v>
       </c>
       <c r="E33" t="n">
-        <v>-25.69428856356575</v>
+        <v>-25.64561138160021</v>
       </c>
       <c r="F33" t="n">
-        <v>4.944122162098973</v>
+        <v>4.951165821027822</v>
       </c>
       <c r="G33" t="n">
-        <v>-5.065401591000066</v>
+        <v>-4.977120192938307</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-6.355711244117003</v>
       </c>
       <c r="E34" t="n">
-        <v>-25.20349740693796</v>
+        <v>-25.15791000844307</v>
       </c>
       <c r="F34" t="n">
-        <v>4.994737004885087</v>
+        <v>5.005446508609618</v>
       </c>
       <c r="G34" t="n">
-        <v>-5.282445787510201</v>
+        <v>-5.188809637586176</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-6.377097140627907</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.88765869318416</v>
+        <v>-24.86503519387366</v>
       </c>
       <c r="F35" t="n">
-        <v>4.837027124853654</v>
+        <v>4.84716056725315</v>
       </c>
       <c r="G35" t="n">
-        <v>-5.384500288161456</v>
+        <v>-5.291662768710776</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-6.442081200103345</v>
       </c>
       <c r="E36" t="n">
-        <v>-24.37993918898202</v>
+        <v>-24.36874527005235</v>
       </c>
       <c r="F36" t="n">
-        <v>4.962294278443289</v>
+        <v>4.945431392383146</v>
       </c>
       <c r="G36" t="n">
-        <v>-5.428621348738073</v>
+        <v>-5.353144222855522</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-6.547580628813368</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.8087482006032</v>
+        <v>-23.78943705391165</v>
       </c>
       <c r="F37" t="n">
-        <v>4.93446004260178</v>
+        <v>4.919613371179262</v>
       </c>
       <c r="G37" t="n">
-        <v>-5.528856019294327</v>
+        <v>-5.464533535432927</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-6.685982372510884</v>
       </c>
       <c r="E38" t="n">
-        <v>-23.21887449606923</v>
+        <v>-23.20718306963157</v>
       </c>
       <c r="F38" t="n">
-        <v>4.760620445469341</v>
+        <v>4.747685250261715</v>
       </c>
       <c r="G38" t="n">
-        <v>-5.550877272674111</v>
+        <v>-5.480663252533933</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-6.84830640177367</v>
       </c>
       <c r="E39" t="n">
-        <v>-23.10486672292348</v>
+        <v>-23.0860138068314</v>
       </c>
       <c r="F39" t="n">
-        <v>4.903117069598688</v>
+        <v>4.882771630982645</v>
       </c>
       <c r="G39" t="n">
-        <v>-5.542013783650262</v>
+        <v>-5.460343998523575</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-7.030941427831427</v>
       </c>
       <c r="E40" t="n">
-        <v>-22.39429507849164</v>
+        <v>-22.38405689766941</v>
       </c>
       <c r="F40" t="n">
-        <v>5.067294547233932</v>
+        <v>5.047498985337242</v>
       </c>
       <c r="G40" t="n">
-        <v>-5.595404194638821</v>
+        <v>-5.513001240552997</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-7.223199901870765</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.89368469473256</v>
+        <v>-21.89430003296612</v>
       </c>
       <c r="F41" t="n">
-        <v>5.045770801362135</v>
+        <v>5.035375512905804</v>
       </c>
       <c r="G41" t="n">
-        <v>-5.65463377269479</v>
+        <v>-5.572780695328318</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-7.422080270328477</v>
       </c>
       <c r="E42" t="n">
-        <v>-21.07370067545241</v>
+        <v>-21.08286528744162</v>
       </c>
       <c r="F42" t="n">
-        <v>5.158862113308964</v>
+        <v>5.13576729109616</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.871547046176507</v>
+        <v>-5.788960799850899</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-7.618914825980369</v>
       </c>
       <c r="E43" t="n">
-        <v>-20.57532907547927</v>
+        <v>-20.56785337055664</v>
       </c>
       <c r="F43" t="n">
-        <v>5.167581587001554</v>
+        <v>5.151294762266446</v>
       </c>
       <c r="G43" t="n">
-        <v>-5.990281140648121</v>
+        <v>-5.920761012558556</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-7.810273605776702</v>
       </c>
       <c r="E44" t="n">
-        <v>-19.94103318740332</v>
+        <v>-19.95758185819527</v>
       </c>
       <c r="F44" t="n">
-        <v>5.032599944703358</v>
+        <v>5.014192166907891</v>
       </c>
       <c r="G44" t="n">
-        <v>-5.993266185696035</v>
+        <v>-5.91616561426111</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-7.990732800408853</v>
       </c>
       <c r="E45" t="n">
-        <v>-19.40788843108256</v>
+        <v>-19.41266712161979</v>
       </c>
       <c r="F45" t="n">
-        <v>4.968500029990268</v>
+        <v>4.962765601345591</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.963127704554381</v>
+        <v>-5.881641211667477</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-8.155029961741507</v>
       </c>
       <c r="E46" t="n">
-        <v>-18.75243538161438</v>
+        <v>-18.75912554836651</v>
       </c>
       <c r="F46" t="n">
-        <v>5.170959401134719</v>
+        <v>5.148388271035584</v>
       </c>
       <c r="G46" t="n">
-        <v>-6.137700470645957</v>
+        <v>-6.029846079835817</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-8.303267390481544</v>
       </c>
       <c r="E47" t="n">
-        <v>-18.38729105535864</v>
+        <v>-18.40029171208048</v>
       </c>
       <c r="F47" t="n">
-        <v>5.180412043786445</v>
+        <v>5.152132669648317</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.345684793589617</v>
+        <v>-6.227016160632211</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-8.429715364260911</v>
       </c>
       <c r="E48" t="n">
-        <v>-17.77616854331255</v>
+        <v>-17.80435627133079</v>
       </c>
       <c r="F48" t="n">
-        <v>5.07706140515386</v>
+        <v>5.044356832655228</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.481347235635583</v>
+        <v>-6.353055760089508</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-8.538675219143713</v>
       </c>
       <c r="E49" t="n">
-        <v>-17.26338231791067</v>
+        <v>-17.26450825595506</v>
       </c>
       <c r="F49" t="n">
-        <v>5.094605090961773</v>
+        <v>5.072950422061558</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.767518791150031</v>
+        <v>-6.627077658566835</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-8.627543116266924</v>
       </c>
       <c r="E50" t="n">
-        <v>-16.66879538435368</v>
+        <v>-16.69039768404253</v>
       </c>
       <c r="F50" t="n">
-        <v>4.961325448033001</v>
+        <v>4.928228106449118</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.941646418944988</v>
+        <v>-6.788348644971217</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-8.700478419085286</v>
       </c>
       <c r="E51" t="n">
-        <v>-15.91518934048108</v>
+        <v>-15.95167758850098</v>
       </c>
       <c r="F51" t="n">
-        <v>4.899320301774587</v>
+        <v>4.873057142274084</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.98604241788128</v>
+        <v>-6.816248342326935</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-8.756653858440572</v>
       </c>
       <c r="E52" t="n">
-        <v>-15.43862951704226</v>
+        <v>-15.47768385641912</v>
       </c>
       <c r="F52" t="n">
-        <v>4.805500859610778</v>
+        <v>4.777876100614736</v>
       </c>
       <c r="G52" t="n">
-        <v>-7.220787407833429</v>
+        <v>-7.059869913605774</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-8.799869309489596</v>
       </c>
       <c r="E53" t="n">
-        <v>-14.85233001118408</v>
+        <v>-14.88588558336742</v>
       </c>
       <c r="F53" t="n">
-        <v>4.7625842908956</v>
+        <v>4.740955806601068</v>
       </c>
       <c r="G53" t="n">
-        <v>-7.464893394317412</v>
+        <v>-7.294130488352778</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-8.834377073852837</v>
       </c>
       <c r="E54" t="n">
-        <v>-14.16668611136289</v>
+        <v>-14.22312702891357</v>
       </c>
       <c r="F54" t="n">
-        <v>4.603015303860643</v>
+        <v>4.573007745747407</v>
       </c>
       <c r="G54" t="n">
-        <v>-7.710269334177041</v>
+        <v>-7.515586790920574</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-8.859687877359962</v>
       </c>
       <c r="E55" t="n">
-        <v>-13.62183683630161</v>
+        <v>-13.67230766375647</v>
       </c>
       <c r="F55" t="n">
-        <v>4.670283555861431</v>
+        <v>4.639359536549274</v>
       </c>
       <c r="G55" t="n">
-        <v>-8.015385451903468</v>
+        <v>-7.816644294766066</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-8.885024254782465</v>
       </c>
       <c r="E56" t="n">
-        <v>-13.32123756305558</v>
+        <v>-13.37860803410803</v>
       </c>
       <c r="F56" t="n">
-        <v>4.576123713823737</v>
+        <v>4.560334396596615</v>
       </c>
       <c r="G56" t="n">
-        <v>-8.049019577903861</v>
+        <v>-7.850370066886352</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-8.91111160838191</v>
       </c>
       <c r="E57" t="n">
-        <v>-13.00668189498027</v>
+        <v>-13.06041270584272</v>
       </c>
       <c r="F57" t="n">
-        <v>4.478036180933525</v>
+        <v>4.440251794932304</v>
       </c>
       <c r="G57" t="n">
-        <v>-8.365761660553741</v>
+        <v>-8.155302892372994</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-8.946513513233629</v>
       </c>
       <c r="E58" t="n">
-        <v>-12.56187090593263</v>
+        <v>-12.62302505250633</v>
       </c>
       <c r="F58" t="n">
-        <v>4.392726735616838</v>
+        <v>4.363321423434321</v>
       </c>
       <c r="G58" t="n">
-        <v>-8.790724718493326</v>
+        <v>-8.591525330756465</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-8.991592176566034</v>
       </c>
       <c r="E59" t="n">
-        <v>-12.2397478868148</v>
+        <v>-12.29413331281933</v>
       </c>
       <c r="F59" t="n">
-        <v>4.369370067347199</v>
+        <v>4.341012139392021</v>
       </c>
       <c r="G59" t="n">
-        <v>-9.126018594269931</v>
+        <v>-8.918806717193933</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-9.051696620548215</v>
       </c>
       <c r="E60" t="n">
-        <v>-11.90605127198489</v>
+        <v>-11.96712686474154</v>
       </c>
       <c r="F60" t="n">
-        <v>4.268218935592023</v>
+        <v>4.234205132809219</v>
       </c>
       <c r="G60" t="n">
-        <v>-9.230233324890071</v>
+        <v>-9.038548918984359</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-9.127502606869902</v>
       </c>
       <c r="E61" t="n">
-        <v>-11.7443089626782</v>
+        <v>-11.79666508174227</v>
       </c>
       <c r="F61" t="n">
-        <v>4.147219872728791</v>
+        <v>4.114436746413109</v>
       </c>
       <c r="G61" t="n">
-        <v>-9.609451876700666</v>
+        <v>-9.406913951739163</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-9.217110539106693</v>
       </c>
       <c r="E62" t="n">
-        <v>-11.65114413565648</v>
+        <v>-11.69455821187964</v>
       </c>
       <c r="F62" t="n">
-        <v>4.043083695925702</v>
+        <v>4.00886041629743</v>
       </c>
       <c r="G62" t="n">
-        <v>-9.813037185889506</v>
+        <v>-9.610224322568328</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-9.322980322067059</v>
       </c>
       <c r="E63" t="n">
-        <v>-11.40790224116005</v>
+        <v>-11.4433431049526</v>
       </c>
       <c r="F63" t="n">
-        <v>4.118600098716778</v>
+        <v>4.080606235870089</v>
       </c>
       <c r="G63" t="n">
-        <v>-10.03912816366327</v>
+        <v>-9.834259808795945</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-9.438332287003169</v>
       </c>
       <c r="E64" t="n">
-        <v>-11.34452240310326</v>
+        <v>-11.36070448941563</v>
       </c>
       <c r="F64" t="n">
-        <v>4.016611059579732</v>
+        <v>3.983670825629949</v>
       </c>
       <c r="G64" t="n">
-        <v>-10.21880692786312</v>
+        <v>-9.985436629709355</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-9.564478481941155</v>
       </c>
       <c r="E65" t="n">
-        <v>-11.40601694955084</v>
+        <v>-11.42091599018473</v>
       </c>
       <c r="F65" t="n">
-        <v>4.025042502609804</v>
+        <v>3.995951405695488</v>
       </c>
       <c r="G65" t="n">
-        <v>-10.10479915471737</v>
+        <v>-9.89945947694774</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-9.693845467955162</v>
       </c>
       <c r="E66" t="n">
-        <v>-11.25573040523067</v>
+        <v>-11.26067929570484</v>
       </c>
       <c r="F66" t="n">
-        <v>4.0389727128334</v>
+        <v>4.005063648473329</v>
       </c>
       <c r="G66" t="n">
-        <v>-10.29408766920305</v>
+        <v>-10.0973103574919</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-9.825681190151485</v>
       </c>
       <c r="E67" t="n">
-        <v>-11.51669927777479</v>
+        <v>-11.51456523241159</v>
       </c>
       <c r="F67" t="n">
-        <v>3.7451290678537</v>
+        <v>3.707397051063845</v>
       </c>
       <c r="G67" t="n">
-        <v>-10.39056484884373</v>
+        <v>-10.18114037258748</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-9.953435068100129</v>
       </c>
       <c r="E68" t="n">
-        <v>-11.51944866137156</v>
+        <v>-11.51442121708033</v>
       </c>
       <c r="F68" t="n">
-        <v>3.860105671409738</v>
+        <v>3.806322491335928</v>
       </c>
       <c r="G68" t="n">
-        <v>-10.17975258848625</v>
+        <v>-9.977843094061155</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-10.07403791421573</v>
       </c>
       <c r="E69" t="n">
-        <v>-11.45519163902437</v>
+        <v>-11.42727884936581</v>
       </c>
       <c r="F69" t="n">
-        <v>3.822871162127869</v>
+        <v>3.782887269249238</v>
       </c>
       <c r="G69" t="n">
-        <v>-10.22239421884176</v>
+        <v>-10.00093791627396</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-10.18629676573057</v>
       </c>
       <c r="E70" t="n">
-        <v>-11.65627631837044</v>
+        <v>-11.64410047672763</v>
       </c>
       <c r="F70" t="n">
-        <v>3.604020227825576</v>
+        <v>3.571786978229247</v>
       </c>
       <c r="G70" t="n">
-        <v>-10.28278901185064</v>
+        <v>-10.05743120303601</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-10.28255115600465</v>
       </c>
       <c r="E71" t="n">
-        <v>-11.61718270208504</v>
+        <v>-11.59264772655965</v>
       </c>
       <c r="F71" t="n">
-        <v>3.512347923327811</v>
+        <v>3.480428888999683</v>
       </c>
       <c r="G71" t="n">
-        <v>-10.28442554970585</v>
+        <v>-10.0629823394409</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-10.36490408188222</v>
       </c>
       <c r="E72" t="n">
-        <v>-11.76961638407126</v>
+        <v>-11.75359140539299</v>
       </c>
       <c r="F72" t="n">
-        <v>3.542669696709248</v>
+        <v>3.499910235628171</v>
       </c>
       <c r="G72" t="n">
-        <v>-10.43029998796837</v>
+        <v>-10.19596085940431</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-10.42652877184715</v>
       </c>
       <c r="E73" t="n">
-        <v>-12.14641285985613</v>
+        <v>-12.12758612836973</v>
       </c>
       <c r="F73" t="n">
-        <v>3.637457969283345</v>
+        <v>3.590482786687232</v>
       </c>
       <c r="G73" t="n">
-        <v>-10.23210870755032</v>
+        <v>-10.00836125198522</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-10.46917633761695</v>
       </c>
       <c r="E74" t="n">
-        <v>-12.44324154988375</v>
+        <v>-12.41906006653508</v>
       </c>
       <c r="F74" t="n">
-        <v>3.631985386695503</v>
+        <v>3.594619954385217</v>
       </c>
       <c r="G74" t="n">
-        <v>-10.14967956885881</v>
+        <v>-9.926193959350545</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-10.48672004013476</v>
       </c>
       <c r="E75" t="n">
-        <v>-12.76579661499535</v>
+        <v>-12.75724734123971</v>
       </c>
       <c r="F75" t="n">
-        <v>3.577128637788671</v>
+        <v>3.532876654183637</v>
       </c>
       <c r="G75" t="n">
-        <v>-10.07052350587773</v>
+        <v>-9.851305987095872</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-10.48182099143987</v>
       </c>
       <c r="E76" t="n">
-        <v>-12.99286951548225</v>
+        <v>-12.96567680247999</v>
       </c>
       <c r="F76" t="n">
-        <v>3.576369284223851</v>
+        <v>3.51583047588371</v>
       </c>
       <c r="G76" t="n">
-        <v>-10.0124984196832</v>
+        <v>-9.789549594591451</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-10.45289703408805</v>
       </c>
       <c r="E77" t="n">
-        <v>-13.4412285186</v>
+        <v>-13.41795040414741</v>
       </c>
       <c r="F77" t="n">
-        <v>3.596976568896728</v>
+        <v>3.553326831222413</v>
       </c>
       <c r="G77" t="n">
-        <v>-9.79432828512868</v>
+        <v>-9.580871379597179</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-10.39841040373427</v>
       </c>
       <c r="E78" t="n">
-        <v>-14.19194116354458</v>
+        <v>-14.16764184947033</v>
       </c>
       <c r="F78" t="n">
-        <v>3.568828117787017</v>
+        <v>3.522533734938674</v>
       </c>
       <c r="G78" t="n">
-        <v>-9.499358702104592</v>
+        <v>-9.287237211462946</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-10.3212785993811</v>
       </c>
       <c r="E79" t="n">
-        <v>-14.78965715748074</v>
+        <v>-14.76102429116588</v>
       </c>
       <c r="F79" t="n">
-        <v>3.689329673142264</v>
+        <v>3.627691111363417</v>
       </c>
       <c r="G79" t="n">
-        <v>-9.505158592263477</v>
+        <v>-9.278753399221507</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-10.21793595876333</v>
       </c>
       <c r="E80" t="n">
-        <v>-15.16735700216169</v>
+        <v>-15.14613437925525</v>
       </c>
       <c r="F80" t="n">
-        <v>3.727375905200319</v>
+        <v>3.672362048659386</v>
       </c>
       <c r="G80" t="n">
-        <v>-9.128113362724607</v>
+        <v>-8.908110305772242</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-10.09145585237943</v>
       </c>
       <c r="E81" t="n">
-        <v>-15.73244697741627</v>
+        <v>-15.71038644712796</v>
       </c>
       <c r="F81" t="n">
-        <v>3.713707541033557</v>
+        <v>3.652304640705862</v>
       </c>
       <c r="G81" t="n">
-        <v>-8.932527450572062</v>
+        <v>-8.716150961506855</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-9.9365924403183</v>
       </c>
       <c r="E82" t="n">
-        <v>-16.57929640212764</v>
+        <v>-16.5662302838916</v>
       </c>
       <c r="F82" t="n">
-        <v>3.599909244733274</v>
+        <v>3.538951482702198</v>
       </c>
       <c r="G82" t="n">
-        <v>-8.698122860493799</v>
+        <v>-8.496854888907944</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-9.757492603504515</v>
       </c>
       <c r="E83" t="n">
-        <v>-17.53422278679746</v>
+        <v>-17.52056751493354</v>
       </c>
       <c r="F83" t="n">
-        <v>3.698939423428091</v>
+        <v>3.638295876665215</v>
       </c>
       <c r="G83" t="n">
-        <v>-8.511269514336684</v>
+        <v>-8.30280077618788</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-9.549488699808245</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.45870956736026</v>
+        <v>-18.44806552514994</v>
       </c>
       <c r="F84" t="n">
-        <v>3.620935483097087</v>
+        <v>3.551362985796154</v>
       </c>
       <c r="G84" t="n">
-        <v>-8.214048055223818</v>
+        <v>-8.016197174679654</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-9.316076882941505</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.47751329759486</v>
+        <v>-19.47408311425032</v>
       </c>
       <c r="F85" t="n">
-        <v>3.779195239847871</v>
+        <v>3.717818524125859</v>
       </c>
       <c r="G85" t="n">
-        <v>-8.036621167112747</v>
+        <v>-7.858513479253905</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-9.058115500903147</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.65753564502247</v>
+        <v>-20.65458987688308</v>
       </c>
       <c r="F86" t="n">
-        <v>3.756702663565786</v>
+        <v>3.686292258882983</v>
       </c>
       <c r="G86" t="n">
-        <v>-7.888560314275667</v>
+        <v>-7.715453886102365</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-8.777457044147839</v>
       </c>
       <c r="E87" t="n">
-        <v>-21.85533733970914</v>
+        <v>-21.84313531346066</v>
       </c>
       <c r="F87" t="n">
-        <v>3.722557937754564</v>
+        <v>3.649188672629531</v>
       </c>
       <c r="G87" t="n">
-        <v>-7.734634109765493</v>
+        <v>-7.55757380613399</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-8.479521822218899</v>
       </c>
       <c r="E88" t="n">
-        <v>-23.26913584667862</v>
+        <v>-23.27333847589081</v>
       </c>
       <c r="F88" t="n">
-        <v>3.947457515969735</v>
+        <v>3.886552123150025</v>
       </c>
       <c r="G88" t="n">
-        <v>-7.664655751076467</v>
+        <v>-7.493460799118058</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-8.164873758739629</v>
       </c>
       <c r="E89" t="n">
-        <v>-24.75732481839478</v>
+        <v>-24.76142270918424</v>
       </c>
       <c r="F89" t="n">
-        <v>3.797943417517223</v>
+        <v>3.721353445893126</v>
       </c>
       <c r="G89" t="n">
-        <v>-7.453948229141728</v>
+        <v>-7.305717176367706</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-7.842674306874287</v>
       </c>
       <c r="E90" t="n">
-        <v>-26.37916001751928</v>
+        <v>-26.38372923121104</v>
       </c>
       <c r="F90" t="n">
-        <v>3.942246779438728</v>
+        <v>3.885766584979522</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.615075200214851</v>
+        <v>-7.464317332992375</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-7.511244519822595</v>
       </c>
       <c r="E91" t="n">
-        <v>-28.0890147686487</v>
+        <v>-28.11588017407992</v>
       </c>
       <c r="F91" t="n">
-        <v>4.073169807855988</v>
+        <v>4.003230726075488</v>
       </c>
       <c r="G91" t="n">
-        <v>-7.347350699404394</v>
+        <v>-7.20236653773512</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-7.180769670282625</v>
       </c>
       <c r="E92" t="n">
-        <v>-30.03676975471513</v>
+        <v>-30.05212702594848</v>
       </c>
       <c r="F92" t="n">
-        <v>3.970657076605273</v>
+        <v>3.902734209462399</v>
       </c>
       <c r="G92" t="n">
-        <v>-7.524947787452409</v>
+        <v>-7.390542206479249</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-6.851665359378357</v>
       </c>
       <c r="E93" t="n">
-        <v>-31.86624887690941</v>
+        <v>-31.873148520507</v>
       </c>
       <c r="F93" t="n">
-        <v>3.895716735139233</v>
+        <v>3.827820052602042</v>
       </c>
       <c r="G93" t="n">
-        <v>-7.381587071335509</v>
+        <v>-7.216754978558177</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-6.52794949887059</v>
       </c>
       <c r="E94" t="n">
-        <v>-33.84388049806066</v>
+        <v>-33.84068597616727</v>
       </c>
       <c r="F94" t="n">
-        <v>4.148817133675482</v>
+        <v>4.06316728848491</v>
       </c>
       <c r="G94" t="n">
-        <v>-7.283290061599829</v>
+        <v>-7.154147586369043</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-6.212951148290601</v>
       </c>
       <c r="E95" t="n">
-        <v>-35.94481542737528</v>
+        <v>-35.95446445456963</v>
       </c>
       <c r="F95" t="n">
-        <v>3.885766584979522</v>
+        <v>3.823735254115423</v>
       </c>
       <c r="G95" t="n">
-        <v>-7.088123103138218</v>
+        <v>-6.960067289043296</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-5.909004350592661</v>
       </c>
       <c r="E96" t="n">
-        <v>-38.19285547141953</v>
+        <v>-38.21327946385263</v>
       </c>
       <c r="F96" t="n">
-        <v>3.744422083500247</v>
+        <v>3.673540355915142</v>
       </c>
       <c r="G96" t="n">
-        <v>-7.162762321638898</v>
+        <v>-7.039851782560775</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-5.623255558460707</v>
       </c>
       <c r="E97" t="n">
-        <v>-40.16180689578672</v>
+        <v>-40.19919851270269</v>
       </c>
       <c r="F97" t="n">
-        <v>3.553929077153132</v>
+        <v>3.490902731273063</v>
       </c>
       <c r="G97" t="n">
-        <v>-6.819717802579992</v>
+        <v>-6.712020519403954</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-5.359092996272802</v>
       </c>
       <c r="E98" t="n">
-        <v>-42.71210893553791</v>
+        <v>-42.74523246172748</v>
       </c>
       <c r="F98" t="n">
-        <v>3.525990102888889</v>
+        <v>3.453668221991194</v>
       </c>
       <c r="G98" t="n">
-        <v>-6.867125031169882</v>
+        <v>-6.757228241116434</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-5.12671532622733</v>
       </c>
       <c r="E99" t="n">
-        <v>-44.84522474523749</v>
+        <v>-44.89068122070397</v>
       </c>
       <c r="F99" t="n">
-        <v>3.459952527355223</v>
+        <v>3.412453652645441</v>
       </c>
       <c r="G99" t="n">
-        <v>-6.638886915730072</v>
+        <v>-6.551364871233133</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-4.934945971999322</v>
       </c>
       <c r="E100" t="n">
-        <v>-47.12619193092869</v>
+        <v>-47.18281614071916</v>
       </c>
       <c r="F100" t="n">
-        <v>3.372129359892925</v>
+        <v>3.325834977044581</v>
       </c>
       <c r="G100" t="n">
-        <v>-6.504298042517128</v>
+        <v>-6.448223709446015</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-4.788323823374188</v>
       </c>
       <c r="E101" t="n">
-        <v>-49.45852022066799</v>
+        <v>-49.50021920521888</v>
       </c>
       <c r="F101" t="n">
-        <v>3.069775718066102</v>
+        <v>3.031127240077327</v>
       </c>
       <c r="G101" t="n">
-        <v>-6.56605443502155</v>
+        <v>-6.536609845930508</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-4.705903059789294</v>
       </c>
       <c r="E102" t="n">
-        <v>-51.85752760878019</v>
+        <v>-51.90843048222882</v>
       </c>
       <c r="F102" t="n">
-        <v>2.685490445055759</v>
+        <v>2.659148731738206</v>
       </c>
       <c r="G102" t="n">
-        <v>-6.55527946978281</v>
+        <v>-6.49741149122238</v>
       </c>
     </row>
   </sheetData>
